--- a/downloads/namn_inkl_urls.xlsx
+++ b/downloads/namn_inkl_urls.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=wexpef0</t>
+          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=513jv3b</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=cd8w7xa</t>
+          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=na9mb62</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=b1er75b</t>
+          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=77dz45l</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=zpfz6gh</t>
+          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=y03vn0z</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=ckp3fkw</t>
+          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=p4fuac9</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=mr8eygj</t>
+          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=u63gd6j</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=2ghnp77</t>
+          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=tdn5rhr</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=atrpkg7</t>
+          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=vhb0xdc</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=2terw2z</t>
+          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=hauuwwr</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=uk6ax39</t>
+          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=99g8y24</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=1bbn1py</t>
+          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=jnc2x2m</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=76n3a1k</t>
+          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=faz9642</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=ca3ve2p</t>
+          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=h7c5838</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=36yxkdg</t>
+          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=tu79p0v</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=br1dthw</t>
+          <t>https://secure.tickster.com/bmxpmev2lhn3ghz?c=9l4378u</t>
         </is>
       </c>
     </row>
